--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R6cec062e148a4090"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R678cdfd83bf9445c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R678cdfd83bf9445c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rc43b7da7a6264d43"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rc43b7da7a6264d43"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R7f505f5c048445d9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R7f505f5c048445d9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rc479a5cd67194423"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rc479a5cd67194423"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R88e510a58f284fe0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R88e510a58f284fe0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R5f23aca3432d4425"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R5f23aca3432d4425"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R5f02a5cbb2094dd6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R5f02a5cbb2094dd6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Ra65286a209634ef2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Ra65286a209634ef2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R6ef8c6c786014133"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R6ef8c6c786014133"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R42b944d051724f0c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R42b944d051724f0c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R7f805e87186d4a44"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R7f805e87186d4a44"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R7b296895b6e748a0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R7b296895b6e748a0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rd2a22dca347142bf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rd2a22dca347142bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R410cc30124444b16"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R410cc30124444b16"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R6fc6ad41a7e046de"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R6fc6ad41a7e046de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R5f47a1f1fba244f8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R5f47a1f1fba244f8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R08d2b99948a64600"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R08d2b99948a64600"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rbd64cf4ec40b464b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rbd64cf4ec40b464b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rd3c755bf19354640"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rd3c755bf19354640"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Ra8ef66d6d0034816"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Ra8ef66d6d0034816"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rf2665c0552544e71"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/57_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rf2665c0552544e71"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rc21a5f16ce4247c6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
